--- a/04_files/HUDM6026 final project.xlsx
+++ b/04_files/HUDM6026 final project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6026 Computational Statistics/HUDM6026_Final_Project/04_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC339437-6EF4-7F4B-81F2-AD08B8B4C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52EA8A-B237-B14F-AED0-017D7BB3735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="29940" windowHeight="18740" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
+    <workbookView xWindow="4360" yWindow="6140" windowWidth="29940" windowHeight="18740" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/04_files/HUDM6026 final project.xlsx
+++ b/04_files/HUDM6026 final project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6026 Computational Statistics/HUDM6026_Final_Project/04_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52EA8A-B237-B14F-AED0-017D7BB3735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6FDDB-2DE9-4341-A441-4C547FA3566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="6140" windowWidth="29940" windowHeight="18740" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
+    <workbookView xWindow="0" yWindow="6780" windowWidth="30240" windowHeight="18880" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>estimated</t>
   </si>
@@ -47,13 +47,22 @@
     <t>sd</t>
   </si>
   <si>
-    <t>bias</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
     <t>sig_2</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -140,8 +149,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155107" cy="167995"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -183,6 +192,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -234,7 +244,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -298,8 +308,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="176715" cy="156518"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -341,6 +351,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -389,7 +400,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -460,8 +471,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188064" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -503,6 +514,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -555,7 +567,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -626,8 +638,8 @@
       <xdr:rowOff>22014</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188064" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -669,6 +681,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -717,7 +730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1080,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B84CEC-03E6-BA42-98BB-E610948431C7}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1104,7 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1102,11 +1115,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1">
         <v>5.2999999999999999E-2</v>
@@ -1118,9 +1139,17 @@
         <f>B2-B6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>0.58499999999999996</v>
@@ -1132,9 +1161,17 @@
         <f>B3-B7</f>
         <v>-7.0000000000000062E-3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>0.14599999999999999</v>
@@ -1146,9 +1183,17 @@
         <f>B4-B6</f>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.3240000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>121.727</v>
@@ -1160,11 +1205,19 @@
         <f>B5-B7</f>
         <v>121.13500000000001</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>875788.19799999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>29.594000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>889543.11300000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>5.2999999999999999E-2</v>
@@ -1175,9 +1228,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>0.59199999999999997</v>
@@ -1186,14 +1239,14 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>

--- a/04_files/HUDM6026 final project.xlsx
+++ b/04_files/HUDM6026 final project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6026 Computational Statistics/HUDM6026_Final_Project/04_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6FDDB-2DE9-4341-A441-4C547FA3566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856EF5B3-A8D4-FA45-A37B-D22B03967AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6780" windowWidth="30240" windowHeight="18880" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E5AD6347-145B-EC4A-AF39-F259BCD8375F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
